--- a/input_data/admin_data/BRA/ptot_2000.xlsx
+++ b/input_data/admin_data/BRA/ptot_2000.xlsx
@@ -116,10 +116,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D2" s="1">
-        <v>0.93883705139160156</v>
+        <v>0.99940210580825806</v>
       </c>
       <c r="E2" s="1">
         <v>101600000</v>
@@ -139,10 +139,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D3" s="1">
-        <v>0.94495338201522827</v>
+        <v>0.99946188926696777</v>
       </c>
       <c r="E3" s="1">
         <v>101600000</v>
@@ -162,10 +162,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D4" s="1">
-        <v>0.95106965303421021</v>
+        <v>0.99952167272567749</v>
       </c>
       <c r="E4" s="1">
         <v>101600000</v>
@@ -185,10 +185,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D5" s="1">
-        <v>0.95718592405319214</v>
+        <v>0.99958145618438721</v>
       </c>
       <c r="E5" s="1">
         <v>101600000</v>
@@ -208,10 +208,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D6" s="1">
-        <v>0.96330225467681885</v>
+        <v>0.99964123964309692</v>
       </c>
       <c r="E6" s="1">
         <v>101600000</v>
@@ -231,10 +231,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D7" s="1">
-        <v>0.96941852569580078</v>
+        <v>0.99970108270645142</v>
       </c>
       <c r="E7" s="1">
         <v>101600000</v>
@@ -254,10 +254,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D8" s="1">
-        <v>0.97553485631942749</v>
+        <v>0.99976086616516113</v>
       </c>
       <c r="E8" s="1">
         <v>101600000</v>
@@ -277,10 +277,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D9" s="1">
-        <v>0.98165112733840942</v>
+        <v>0.99982064962387085</v>
       </c>
       <c r="E9" s="1">
         <v>101600000</v>
@@ -300,10 +300,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D10" s="1">
-        <v>0.98776739835739136</v>
+        <v>0.99988043308258057</v>
       </c>
       <c r="E10" s="1">
         <v>101600000</v>
@@ -323,10 +323,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D11" s="1">
-        <v>0.99388372898101807</v>
+        <v>0.99994021654129028</v>
       </c>
       <c r="E11" s="1">
         <v>101600000</v>
@@ -346,10 +346,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D12" s="1">
-        <v>0.99449533224105835</v>
+        <v>0.99994617700576782</v>
       </c>
       <c r="E12" s="1">
         <v>101600000</v>
@@ -369,10 +369,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D13" s="1">
-        <v>0.99510699510574341</v>
+        <v>0.99995219707489014</v>
       </c>
       <c r="E13" s="1">
         <v>101600000</v>
@@ -392,10 +392,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D14" s="1">
-        <v>0.99571859836578369</v>
+        <v>0.99995815753936768</v>
       </c>
       <c r="E14" s="1">
         <v>101600000</v>
@@ -415,10 +415,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D15" s="1">
-        <v>0.99633020162582397</v>
+        <v>0.99996411800384521</v>
       </c>
       <c r="E15" s="1">
         <v>101600000</v>
@@ -438,10 +438,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D16" s="1">
-        <v>0.99694186449050903</v>
+        <v>0.99997007846832275</v>
       </c>
       <c r="E16" s="1">
         <v>101600000</v>
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99755346775054932</v>
+        <v>0.99997609853744507</v>
       </c>
       <c r="E17" s="1">
         <v>101600000</v>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D18" s="1">
-        <v>0.99816513061523438</v>
+        <v>0.99998205900192261</v>
       </c>
       <c r="E18" s="1">
         <v>101600000</v>
@@ -507,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D19" s="1">
-        <v>0.99877673387527466</v>
+        <v>0.99998801946640015</v>
       </c>
       <c r="E19" s="1">
         <v>101600000</v>
@@ -530,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D20" s="1">
-        <v>0.99938839673995972</v>
+        <v>0.99999403953552246</v>
       </c>
       <c r="E20" s="1">
         <v>101600000</v>
@@ -553,10 +553,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D21" s="1">
-        <v>0.99944955110549927</v>
+        <v>0.99999463558197021</v>
       </c>
       <c r="E21" s="1">
         <v>101600000</v>
@@ -576,10 +576,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D22" s="1">
-        <v>0.99951070547103882</v>
+        <v>0.99999523162841797</v>
       </c>
       <c r="E22" s="1">
         <v>101600000</v>
@@ -599,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D23" s="1">
-        <v>0.99957185983657837</v>
+        <v>0.99999582767486572</v>
       </c>
       <c r="E23" s="1">
         <v>101600000</v>
@@ -622,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D24" s="1">
-        <v>0.99963301420211792</v>
+        <v>0.99999642372131348</v>
       </c>
       <c r="E24" s="1">
         <v>101600000</v>
@@ -645,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D25" s="1">
-        <v>0.99969416856765747</v>
+        <v>0.99999701976776123</v>
       </c>
       <c r="E25" s="1">
         <v>101600000</v>
@@ -668,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D26" s="1">
-        <v>0.99975532293319702</v>
+        <v>0.99999761581420898</v>
       </c>
       <c r="E26" s="1">
         <v>101600000</v>
@@ -691,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D27" s="1">
-        <v>0.99981653690338135</v>
+        <v>0.99999821186065674</v>
       </c>
       <c r="E27" s="1">
         <v>101600000</v>
@@ -714,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D28" s="1">
-        <v>0.9998776912689209</v>
+        <v>0.99999880790710449</v>
       </c>
       <c r="E28" s="1">
         <v>101600000</v>
@@ -737,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D29" s="1">
-        <v>0.99993884563446045</v>
+        <v>0.99999940395355225</v>
       </c>
       <c r="E29" s="1">
         <v>101600000</v>
@@ -760,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D30" s="1">
-        <v>0.99994492530822754</v>
+        <v>0.99999946355819702</v>
       </c>
       <c r="E30" s="1">
         <v>101600000</v>
@@ -783,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D31" s="1">
-        <v>0.9999510645866394</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="E31" s="1">
         <v>101600000</v>
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D32" s="1">
-        <v>0.99995720386505127</v>
+        <v>0.99999958276748657</v>
       </c>
       <c r="E32" s="1">
         <v>101600000</v>
@@ -829,10 +829,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D33" s="1">
-        <v>0.99996328353881836</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="E33" s="1">
         <v>101600000</v>
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D34" s="1">
-        <v>0.99996942281723022</v>
+        <v>0.99999970197677612</v>
       </c>
       <c r="E34" s="1">
         <v>101600000</v>
@@ -875,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D35" s="1">
-        <v>0.99997556209564209</v>
+        <v>0.9999997615814209</v>
       </c>
       <c r="E35" s="1">
         <v>101600000</v>
@@ -898,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D36" s="1">
-        <v>0.99998164176940918</v>
+        <v>0.99999982118606567</v>
       </c>
       <c r="E36" s="1">
         <v>101600000</v>
@@ -921,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D37" s="1">
-        <v>0.99998778104782104</v>
+        <v>0.99999988079071045</v>
       </c>
       <c r="E37" s="1">
         <v>101600000</v>
@@ -944,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>5195.5884164285226</v>
+        <v>50.788948223972682</v>
       </c>
       <c r="D38" s="1">
-        <v>0.99999386072158813</v>
+        <v>0.99999994039535522</v>
       </c>
       <c r="E38" s="1">
         <v>101600000</v>
